--- a/medicine/Psychotrope/Howard_Schultz/Howard_Schultz.xlsx
+++ b/medicine/Psychotrope/Howard_Schultz/Howard_Schultz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Howard Schultz, né le 19 juillet 1953 à New York aux États-Unis, est un chef d'entreprise américain. Il est le principal actionnaire de Starbucks. En 2018, sa fortune est évaluée à 2,8 milliards de dollars américains, faisant de lui la 887e fortune mondiale, et 288e américaine, selon le magazine Forbes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Howard Schultz, né le 19 juillet 1953 à New York aux États-Unis, est un chef d'entreprise américain. Il est le principal actionnaire de Starbucks. En 2018, sa fortune est évaluée à 2,8 milliards de dollars américains, faisant de lui la 887e fortune mondiale, et 288e américaine, selon le magazine Forbes.
 </t>
         </is>
       </c>
@@ -511,22 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schultz fait partie d'une famille juive américaine. Il est né le 19 juillet 1953 à Brooklyn, New York. Il est le fils d'Elaine Lederman et Fred Schultz, ancien soldat de l'armée américaine, devenu chauffeur de camion. Il a grandi dans le quartier de Carnasie à Brooklyn dans un logement social de la New York City Housing Authority avec ses parents, sa sœur cadette Ronnie, et son frère Michael.
-Il est diplômé du lycée de Canarsie en 1971. Il est quarterback de l'équipe de football américain du lycée et est invité à l'Université du Northern Michigan pour disputer une bourse sportive. Il n’a pas été sélectionné en tant que quarterback et ne voualnt pas jouer à un autre poste, il est éliminé. Il a financé ses études universitaires à l'aide de prêts gouvernementaux et de l'argent gagné en travaillant à temps partiel. Il est la première personne de sa famille à aller à l'université. Il a été membre de la section thêta-lota du Tau Kappa Epsilon et a obtenu sa licence (bachelor) en communication verbale en 1975. Il devient l'année suivante commercial pour Xerox[2].
-Carrière chez Starbucks
-Il rejoint Starbucks, alors une petite société avec seulement quatre points de vente de café, comme directeur du marketing en 1982.
-En 1983, après un voyage à Milan au cours duquel il découvre les cafés italiens, il tente en vain de convaincre les dirigeants de Starbucks qu'il y a là un créneau très intéressant[2]. Furieux de leur frilosité, il démissionne et part monter sa propre affaire, avec succès[2] .
-Il rachète Starbucks en 1987, et en fait une multinationale du café en quelques années[3].
-En 2000, il abandonne son poste exécutif pour ne rester que président, et se consacre à ses loisirs, notamment en rachetant l'équipe de basket-ball des Seattle Supersonics[2].
-En 2008, cependant, devant les difficultés économiques inédites qui frappent soudainement Starbucks, il reprend les commandes opérationnelles du groupe, et mène plusieurs réformes, ainsi qu'un plan social conséquent[2].
-Malgré ce dernier, il est considéré[Par qui ?] comme un patron social, soutenant le parti démocrate, et donnant divers avantages sociaux plutôt rares à ses salariés, notamment une assurance-maladie[2].
-En 2011, mécontent de la politique économique fédérale, et notamment de l'inaction face à la dette publique, il lance un appel aux patrons américains (150 y souscriront) à ne financer aucune des campagnes électorales qui s'annoncent. Il est reçu dans la foulée par le président Barack Obama[2]. Il lance ensuite le fonds « Créer des emplois »[2].
-En 2016, il quitte ses fonctions opérationnelles chez Starbucks[4]. En 2018, il quitte Starbucks et devient président honorifique[5]. Il en reste le principal actionnaire, avec 33 millions d'actions en sa possession[6].
-Critique de la politique du président Donald Trump, il apparaît pour certains observateurs comme tenté de briguer la Maison-Blanche lors de l'élection présidentielle de 2020. Il se fait ainsi remarquer pour des prises de position en faveur des Noirs ou des personnes LGBT[7].
-Le 6 septembre 2019, il annonce sur CNN qu'il ne se présentera pas à l'élection présidentielle de 2020.
-Le 14 septembre 2020, Howard Schultz annonce sur CNBC, qu'il apporte son soutien à Joe Biden, lors de l'élection présidentielle de 2020.
+Il est diplômé du lycée de Canarsie en 1971. Il est quarterback de l'équipe de football américain du lycée et est invité à l'Université du Northern Michigan pour disputer une bourse sportive. Il n’a pas été sélectionné en tant que quarterback et ne voualnt pas jouer à un autre poste, il est éliminé. Il a financé ses études universitaires à l'aide de prêts gouvernementaux et de l'argent gagné en travaillant à temps partiel. Il est la première personne de sa famille à aller à l'université. Il a été membre de la section thêta-lota du Tau Kappa Epsilon et a obtenu sa licence (bachelor) en communication verbale en 1975. Il devient l'année suivante commercial pour Xerox.
 </t>
         </is>
       </c>
@@ -552,12 +554,28 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reconnaissance</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2011 également, le magazine économique Fortune le consacre « homme d'affaires de l'année »[2].
+          <t>Carrière chez Starbucks</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rejoint Starbucks, alors une petite société avec seulement quatre points de vente de café, comme directeur du marketing en 1982.
+En 1983, après un voyage à Milan au cours duquel il découvre les cafés italiens, il tente en vain de convaincre les dirigeants de Starbucks qu'il y a là un créneau très intéressant. Furieux de leur frilosité, il démissionne et part monter sa propre affaire, avec succès .
+Il rachète Starbucks en 1987, et en fait une multinationale du café en quelques années.
+En 2000, il abandonne son poste exécutif pour ne rester que président, et se consacre à ses loisirs, notamment en rachetant l'équipe de basket-ball des Seattle Supersonics.
+En 2008, cependant, devant les difficultés économiques inédites qui frappent soudainement Starbucks, il reprend les commandes opérationnelles du groupe, et mène plusieurs réformes, ainsi qu'un plan social conséquent.
+Malgré ce dernier, il est considéré[Par qui ?] comme un patron social, soutenant le parti démocrate, et donnant divers avantages sociaux plutôt rares à ses salariés, notamment une assurance-maladie.
+En 2011, mécontent de la politique économique fédérale, et notamment de l'inaction face à la dette publique, il lance un appel aux patrons américains (150 y souscriront) à ne financer aucune des campagnes électorales qui s'annoncent. Il est reçu dans la foulée par le président Barack Obama. Il lance ensuite le fonds « Créer des emplois ».
+En 2016, il quitte ses fonctions opérationnelles chez Starbucks. En 2018, il quitte Starbucks et devient président honorifique. Il en reste le principal actionnaire, avec 33 millions d'actions en sa possession.
+Critique de la politique du président Donald Trump, il apparaît pour certains observateurs comme tenté de briguer la Maison-Blanche lors de l'élection présidentielle de 2020. Il se fait ainsi remarquer pour des prises de position en faveur des Noirs ou des personnes LGBT.
+Le 6 septembre 2019, il annonce sur CNN qu'il ne se présentera pas à l'élection présidentielle de 2020.
+Le 14 septembre 2020, Howard Schultz annonce sur CNBC, qu'il apporte son soutien à Joe Biden, lors de l'élection présidentielle de 2020.
 </t>
         </is>
       </c>
@@ -583,10 +601,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Reconnaissance</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011 également, le magazine économique Fortune le consacre « homme d'affaires de l'année ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Howard_Schultz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Howard_Schultz</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Comment Starbucks a sauvé sa peau sans perdre son âme, Télémaque, 2011</t>
         </is>
